--- a/RFUtilityKnife-top.xlsx
+++ b/RFUtilityKnife-top.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="276">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -43,37 +43,34 @@
     <t xml:space="preserve">Layer</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">C1</t>
   </si>
   <si>
-    <t xml:space="preserve">100 pF        C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_0805_HandSoldering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  top</t>
+    <t xml:space="preserve">100 pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_0805_HandSoldering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top</t>
   </si>
   <si>
     <t xml:space="preserve">C2</t>
   </si>
   <si>
-    <t xml:space="preserve">100 nF        C</t>
+    <t xml:space="preserve">100 nF</t>
   </si>
   <si>
     <t xml:space="preserve">C3</t>
   </si>
   <si>
-    <t xml:space="preserve">22 uF         C</t>
+    <t xml:space="preserve">22 uF</t>
   </si>
   <si>
     <t xml:space="preserve">C4</t>
   </si>
   <si>
-    <t xml:space="preserve">10 nF         C</t>
+    <t xml:space="preserve">10 nF</t>
   </si>
   <si>
     <t xml:space="preserve">C5</t>
@@ -97,13 +94,13 @@
     <t xml:space="preserve">C11</t>
   </si>
   <si>
-    <t xml:space="preserve">1 uF          C</t>
+    <t xml:space="preserve">1 uF</t>
   </si>
   <si>
     <t xml:space="preserve">C12</t>
   </si>
   <si>
-    <t xml:space="preserve">10 uF         C</t>
+    <t xml:space="preserve">10 uF</t>
   </si>
   <si>
     <t xml:space="preserve">C13</t>
@@ -136,15 +133,12 @@
     <t xml:space="preserve">C22</t>
   </si>
   <si>
+    <t xml:space="preserve">1 pF</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23</t>
   </si>
   <si>
-    <t xml:space="preserve">1 pF          C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_0603</t>
-  </si>
-  <si>
     <t xml:space="preserve">C24</t>
   </si>
   <si>
@@ -223,6 +217,18 @@
     <t xml:space="preserve">C49</t>
   </si>
   <si>
+    <t xml:space="preserve">C50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C52</t>
+  </si>
+  <si>
     <t xml:space="preserve">C53</t>
   </si>
   <si>
@@ -244,31 +250,55 @@
     <t xml:space="preserve">C59</t>
   </si>
   <si>
+    <t xml:space="preserve">C60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C66</t>
+  </si>
+  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
-    <t xml:space="preserve">LED           L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ED_0805_HandSoldering</t>
+    <t xml:space="preserve">LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED_0805_HandSoldering</t>
   </si>
   <si>
     <t xml:space="preserve">D2</t>
   </si>
   <si>
-    <t xml:space="preserve">LRB751V       D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_SOD-323_HandSoldering</t>
+    <t xml:space="preserve">LRB751V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SOD-323_HandSoldering</t>
   </si>
   <si>
     <t xml:space="preserve">D3</t>
   </si>
   <si>
-    <t xml:space="preserve">1N4007        D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_SMA_Handsoldering</t>
+    <t xml:space="preserve">1N4007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SMA_Handsoldering</t>
   </si>
   <si>
     <t xml:space="preserve">D4</t>
@@ -283,16 +313,28 @@
     <t xml:space="preserve">D7</t>
   </si>
   <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_Zener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_MiniMELF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US1MG</t>
+  </si>
+  <si>
     <t xml:space="preserve">J3</t>
   </si>
   <si>
-    <t xml:space="preserve">Conn_Coaxial  A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mphenol_RF_SMA_132289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J4</t>
+    <t xml:space="preserve">Conn_Coaxial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amphenol_RF_SMA_132289</t>
   </si>
   <si>
     <t xml:space="preserve">J18</t>
@@ -304,37 +346,37 @@
     <t xml:space="preserve">J25</t>
   </si>
   <si>
-    <t xml:space="preserve">J92</t>
-  </si>
-  <si>
     <t xml:space="preserve">J93</t>
   </si>
   <si>
-    <t xml:space="preserve">J94</t>
-  </si>
-  <si>
     <t xml:space="preserve">J95</t>
   </si>
   <si>
     <t xml:space="preserve">J96</t>
   </si>
   <si>
-    <t xml:space="preserve">J97</t>
-  </si>
-  <si>
     <t xml:space="preserve">J126</t>
   </si>
   <si>
     <t xml:space="preserve">J127</t>
   </si>
   <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 uH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_7.3x7.3_H4.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q1</t>
   </si>
   <si>
-    <t xml:space="preserve">2SC3356       S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OT-23</t>
+    <t xml:space="preserve">2SC3356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23</t>
   </si>
   <si>
     <t xml:space="preserve">Q2</t>
@@ -352,12 +394,12 @@
     <t xml:space="preserve">Q6</t>
   </si>
   <si>
+    <t xml:space="preserve">180.0000  t</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q7</t>
   </si>
   <si>
-    <t xml:space="preserve">Q8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q9</t>
   </si>
   <si>
@@ -391,18 +433,18 @@
     <t xml:space="preserve">Q19</t>
   </si>
   <si>
-    <t xml:space="preserve">Q20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q23</t>
   </si>
   <si>
+    <t xml:space="preserve">Q24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMBT5551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q26</t>
   </si>
   <si>
@@ -415,37 +457,40 @@
     <t xml:space="preserve">R1</t>
   </si>
   <si>
-    <t xml:space="preserve">1k            R</t>
+    <t xml:space="preserve">1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_0805_HandSoldering</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">22R           R</t>
+    <t xml:space="preserve">22R</t>
   </si>
   <si>
     <t xml:space="preserve">R3</t>
   </si>
   <si>
-    <t xml:space="preserve">47k           R</t>
+    <t xml:space="preserve">47k</t>
   </si>
   <si>
     <t xml:space="preserve">R4</t>
   </si>
   <si>
-    <t xml:space="preserve">10R           R</t>
+    <t xml:space="preserve">10R</t>
   </si>
   <si>
     <t xml:space="preserve">R5</t>
   </si>
   <si>
-    <t xml:space="preserve">220R          R</t>
+    <t xml:space="preserve">220R</t>
   </si>
   <si>
     <t xml:space="preserve">R6</t>
   </si>
   <si>
-    <t xml:space="preserve">10k           R</t>
+    <t xml:space="preserve">10k</t>
   </si>
   <si>
     <t xml:space="preserve">R7</t>
@@ -454,7 +499,7 @@
     <t xml:space="preserve">R8</t>
   </si>
   <si>
-    <t xml:space="preserve">100R          R</t>
+    <t xml:space="preserve">100R</t>
   </si>
   <si>
     <t xml:space="preserve">R9</t>
@@ -478,19 +523,19 @@
     <t xml:space="preserve">R15</t>
   </si>
   <si>
-    <t xml:space="preserve">NC            R</t>
+    <t xml:space="preserve">NC</t>
   </si>
   <si>
     <t xml:space="preserve">R16</t>
   </si>
   <si>
-    <t xml:space="preserve">100k          R</t>
+    <t xml:space="preserve">100k</t>
   </si>
   <si>
     <t xml:space="preserve">R17</t>
   </si>
   <si>
-    <t xml:space="preserve">0R            R</t>
+    <t xml:space="preserve">47R</t>
   </si>
   <si>
     <t xml:space="preserve">R18</t>
@@ -499,12 +544,12 @@
     <t xml:space="preserve">R19</t>
   </si>
   <si>
+    <t xml:space="preserve">470R</t>
+  </si>
+  <si>
     <t xml:space="preserve">R20</t>
   </si>
   <si>
-    <t xml:space="preserve">2k2           R</t>
-  </si>
-  <si>
     <t xml:space="preserve">R21</t>
   </si>
   <si>
@@ -541,6 +586,9 @@
     <t xml:space="preserve">R32</t>
   </si>
   <si>
+    <t xml:space="preserve">56R</t>
+  </si>
+  <si>
     <t xml:space="preserve">R33</t>
   </si>
   <si>
@@ -556,9 +604,6 @@
     <t xml:space="preserve">R37</t>
   </si>
   <si>
-    <t xml:space="preserve">51R           R</t>
-  </si>
-  <si>
     <t xml:space="preserve">R38</t>
   </si>
   <si>
@@ -571,12 +616,15 @@
     <t xml:space="preserve">R41</t>
   </si>
   <si>
-    <t xml:space="preserve">68R           R</t>
+    <t xml:space="preserve">1k5</t>
   </si>
   <si>
     <t xml:space="preserve">R42</t>
   </si>
   <si>
+    <t xml:space="preserve">2k2</t>
+  </si>
+  <si>
     <t xml:space="preserve">R43</t>
   </si>
   <si>
@@ -673,9 +721,6 @@
     <t xml:space="preserve">R74</t>
   </si>
   <si>
-    <t xml:space="preserve">47R           R</t>
-  </si>
-  <si>
     <t xml:space="preserve">R75</t>
   </si>
   <si>
@@ -703,18 +748,9 @@
     <t xml:space="preserve">R83</t>
   </si>
   <si>
-    <t xml:space="preserve">R84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R85</t>
-  </si>
-  <si>
     <t xml:space="preserve">R86</t>
   </si>
   <si>
-    <t xml:space="preserve">R87</t>
-  </si>
-  <si>
     <t xml:space="preserve">R88</t>
   </si>
   <si>
@@ -727,15 +763,30 @@
     <t xml:space="preserve">R91</t>
   </si>
   <si>
+    <t xml:space="preserve">R92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R97</t>
+  </si>
+  <si>
     <t xml:space="preserve">R98</t>
   </si>
   <si>
     <t xml:space="preserve">R99</t>
   </si>
   <si>
-    <t xml:space="preserve">R100</t>
-  </si>
-  <si>
     <t xml:space="preserve">R101</t>
   </si>
   <si>
@@ -775,10 +826,25 @@
     <t xml:space="preserve">U1</t>
   </si>
   <si>
-    <t xml:space="preserve">LM317MDT      T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O-252-3_TabPin2</t>
+    <t xml:space="preserve">LM317MDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO-252-3_TabPin2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIC-8_3.9x4.9mm_Pitch1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM78M05_TO252</t>
   </si>
   <si>
     <t xml:space="preserve">## End</t>
@@ -855,8 +921,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -877,10 +947,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F104" activeCellId="0" sqref="F104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A219" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D221" activeCellId="0" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -888,11 +958,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,19 +986,16 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>109.45</v>
@@ -941,18 +1007,18 @@
         <v>180</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>120.2</v>
@@ -963,19 +1029,19 @@
       <c r="F3" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>11</v>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>142.575</v>
@@ -986,19 +1052,19 @@
       <c r="F4" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>11</v>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>122.5</v>
@@ -1009,19 +1075,19 @@
       <c r="F5" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>11</v>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>132.3</v>
@@ -1032,19 +1098,19 @@
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>11</v>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>130.6</v>
@@ -1055,19 +1121,19 @@
       <c r="F7" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>11</v>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>140.6</v>
@@ -1078,19 +1144,19 @@
       <c r="F8" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>11</v>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>143.75</v>
@@ -1101,19 +1167,19 @@
       <c r="F9" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>11</v>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>148.42</v>
@@ -1124,111 +1190,111 @@
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>11</v>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>106.5</v>
+        <v>105.9</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>-89.9</v>
+        <v>-88.1</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>101</v>
+        <v>102.7</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-71.4</v>
+        <v>-72.6</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>112.784</v>
+        <v>120</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-79.422</v>
+        <v>-78.9</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>110.94</v>
+        <v>113.1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-91.32</v>
+        <v>-96.1</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>11</v>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>116.3</v>
@@ -1239,19 +1305,19 @@
       <c r="F15" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>11</v>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>123.9</v>
@@ -1262,42 +1328,42 @@
       <c r="F16" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>11</v>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>122.72</v>
+        <v>124.8</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>-74.96</v>
+        <v>-81.1</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>131.9</v>
@@ -1308,19 +1374,19 @@
       <c r="F18" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>11</v>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>132.1</v>
@@ -1331,42 +1397,42 @@
       <c r="F19" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>11</v>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>124.92</v>
+        <v>129.6</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-76.99</v>
+        <v>-81.1</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>141.74</v>
@@ -1377,19 +1443,19 @@
       <c r="F21" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>11</v>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>143.1</v>
@@ -1400,31 +1466,31 @@
       <c r="F22" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>11</v>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>137.95</v>
+        <v>108.2</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-75.25</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>11</v>
+        <v>-96.1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,33 +1498,33 @@
         <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>142.248</v>
+        <v>109.3</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-74.85</v>
+        <v>-87</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>107.704</v>
@@ -1469,19 +1535,19 @@
       <c r="F25" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>11</v>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>107.958</v>
@@ -1492,19 +1558,19 @@
       <c r="F26" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>11</v>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>117.102</v>
@@ -1515,19 +1581,19 @@
       <c r="F27" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>11</v>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>121.928</v>
@@ -1538,19 +1604,19 @@
       <c r="F28" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>11</v>
+      <c r="G28" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>117.356</v>
@@ -1561,19 +1627,19 @@
       <c r="F29" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>11</v>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>122.21</v>
@@ -1584,19 +1650,19 @@
       <c r="F30" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>11</v>
+      <c r="G30" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>144.026</v>
@@ -1607,19 +1673,19 @@
       <c r="F31" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>11</v>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>143.01</v>
@@ -1630,19 +1696,19 @@
       <c r="F32" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>11</v>
+      <c r="G32" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>121.928</v>
@@ -1653,19 +1719,19 @@
       <c r="F33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>11</v>
+      <c r="G33" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>123.96</v>
@@ -1676,19 +1742,19 @@
       <c r="F34" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>11</v>
+      <c r="G34" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>131.4</v>
@@ -1699,19 +1765,19 @@
       <c r="F35" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>11</v>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>137.66</v>
@@ -1722,19 +1788,19 @@
       <c r="F36" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>11</v>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>142.8</v>
@@ -1745,295 +1811,295 @@
       <c r="F37" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>11</v>
+      <c r="G37" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>69.075</v>
+        <v>69.475</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>-101.675</v>
+        <v>-98.975</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>68.25</v>
+        <v>66.3</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>-115.225</v>
+        <v>-109.65</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>11</v>
+      <c r="G39" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>85.9</v>
+        <v>82.225</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>-124.375</v>
+        <v>-106.75</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>82.296</v>
+        <v>65.325</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>-94.234</v>
+        <v>-95.75</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>79.96</v>
+        <v>76.425</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>-123.04</v>
+        <v>-96.65</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>74.93</v>
+        <v>75.975</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>-122.936</v>
+        <v>-113.2</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>73.66</v>
+        <v>79.85</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>-93.726</v>
+        <v>-124.325</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>68.7</v>
+        <v>83.325</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>-124.45</v>
+        <v>-120.375</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G45" s="0" t="s">
-        <v>11</v>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>62.1</v>
+        <v>79.425</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>-96</v>
+        <v>-85.8</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G46" s="0" t="s">
-        <v>11</v>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>68.25</v>
+        <v>88.05</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>-109.25</v>
+        <v>-122.3</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>66.5</v>
+        <v>84.7</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>-96</v>
+        <v>-110.9</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>11</v>
+      <c r="G48" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>80.475</v>
+        <v>83.3</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>-90.475</v>
+        <v>-100.725</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>71.7</v>
@@ -2044,427 +2110,427 @@
       <c r="F50" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G50" s="0" t="s">
-        <v>11</v>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>65.5</v>
+        <v>123.9</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>-56.5</v>
+        <v>-93.3</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>74.525</v>
+        <v>88.9</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>-53.5</v>
-      </c>
-      <c r="F52" s="0" t="n">
+        <v>-53.2</v>
+      </c>
+      <c r="F52" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="G52" s="0" t="s">
-        <v>11</v>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>88.5</v>
+        <v>128.3</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>-59</v>
+        <v>-47.4</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>77.8</v>
+        <v>72.7</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>-54.175</v>
+        <v>-60</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>81.65</v>
+        <v>77.9</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>-54.025</v>
+        <v>-58.5</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>78.475</v>
+        <v>87</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>-48.825</v>
+        <v>-58.9</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>85.55</v>
+        <v>77.8</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>-43.175</v>
+        <v>-54.175</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G57" s="0" t="s">
-        <v>11</v>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>144.58</v>
+        <v>81.65</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>-39.25</v>
+        <v>-54.025</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G58" s="0" t="s">
-        <v>11</v>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>147.13</v>
+        <v>78.475</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>-53.24</v>
+        <v>-48.825</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>106.5</v>
+        <v>85.55</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>-71.5</v>
+        <v>-43.175</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>126.28</v>
+        <v>153.5</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>-70.29</v>
+        <v>-81.9</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>138.184</v>
+        <v>155.5</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>-125.952</v>
+        <v>-70.5</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>62.1</v>
+        <v>128.3</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>-98</v>
+        <v>-71.8</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>70.4</v>
+        <v>130.3</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>-38.8</v>
+        <v>-71.8</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>153.5</v>
+        <v>109.3</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>-94</v>
+        <v>-88.9</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>153.5</v>
+        <v>78.075</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>-77.5</v>
+        <v>-89.25</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>153.5</v>
+        <v>66.45</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>-113</v>
+        <v>-105.8</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>154.275</v>
+        <v>144.58</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>-41.85</v>
+        <v>-39.25</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>88</v>
@@ -2473,154 +2539,154 @@
         <v>89</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>154</v>
+        <v>147.13</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>-58</v>
+        <v>-53.24</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>60</v>
+        <v>109.9</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>-105.5</v>
+        <v>-71.8</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>83</v>
+        <v>129.8</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>-129.5</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>11</v>
+        <v>-77.7</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>60</v>
+        <v>138.184</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>-122.5</v>
+        <v>-125.952</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>59.8</v>
+        <v>63.2</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>-71</v>
+        <v>-85.725</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>60</v>
+        <v>70.4</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>-88</v>
+        <v>-38.8</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="D75" s="0" t="n">
-        <v>65</v>
+        <v>109.6</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>-129.5</v>
+        <v>-92.6</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,50 +2694,50 @@
         <v>100</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>60</v>
+        <v>140.4</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>-55</v>
+        <v>-71.4</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>83.65</v>
+        <v>153.5</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>-34.975</v>
+        <v>-94</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>103</v>
@@ -2680,21 +2746,21 @@
         <v>104</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>118.4</v>
+        <v>153.5</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>-40.8</v>
+        <v>-113</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>103</v>
@@ -2703,21 +2769,21 @@
         <v>104</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>126.6</v>
+        <v>154.275</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>-44.6</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>11</v>
+        <v>-41.85</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>103</v>
@@ -2726,21 +2792,21 @@
         <v>104</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>139.5</v>
+        <v>154</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>-43.5</v>
+        <v>-58</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>103</v>
@@ -2749,21 +2815,21 @@
         <v>104</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>106.7</v>
+        <v>60.025</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>-92.4</v>
+        <v>-120.15</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>103</v>
@@ -2772,21 +2838,21 @@
         <v>104</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>117.2</v>
+        <v>59.725</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>-90.4</v>
+        <v>-96.9</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>103</v>
@@ -2795,21 +2861,21 @@
         <v>104</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>127.9</v>
+        <v>79.975</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>-92.3</v>
+        <v>-129.15</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>103</v>
@@ -2818,21 +2884,21 @@
         <v>104</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>140.7</v>
+        <v>59.775</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>-91.4</v>
+        <v>-59.075</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>103</v>
@@ -2841,2896 +2907,3149 @@
         <v>104</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>143.25</v>
+        <v>83.65</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>-77.85</v>
+        <v>-34.975</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G85" s="0" t="s">
-        <v>11</v>
+      <c r="G85" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>116.34</v>
+        <v>149.5</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>-123.158</v>
+        <v>-72.7</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>116.848</v>
+        <v>118.4</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>-112.49</v>
+        <v>-40.8</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G87" s="0" t="s">
-        <v>11</v>
+      <c r="G87" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>136.66</v>
+        <v>126.6</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>-121.634</v>
+        <v>-44.6</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>128.278</v>
+        <v>139.5</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>-124.682</v>
+        <v>-43.5</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G89" s="0" t="s">
-        <v>11</v>
+      <c r="G89" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>133.104</v>
+        <v>112.8</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>-120.618</v>
+        <v>-93.5</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="C91" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>128.42</v>
+        <v>117.5</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>-113.34</v>
+        <v>-90.4</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G91" s="0" t="s">
-        <v>11</v>
+      <c r="G91" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="D92" s="0" t="n">
-        <v>138.63</v>
+        <v>127.9</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>-112.18</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>11</v>
+        <v>-92.3</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>79.4</v>
+        <v>140.7</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>-110.4</v>
+        <v>-91.4</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>80.518</v>
+        <v>116.34</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>-106.172</v>
+        <v>-123.158</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>75</v>
+        <v>116.848</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>-114.4</v>
+        <v>-112.49</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>79.3</v>
+        <v>136.66</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>-114.4</v>
+        <v>-121.634</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>73.66</v>
+        <v>128.278</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>-106.426</v>
+        <v>-124.682</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G97" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>75</v>
+        <v>133.104</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>-110.4</v>
+        <v>-120.618</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G98" s="0" t="s">
-        <v>11</v>
+      <c r="G98" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>77.925</v>
+        <v>128.42</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>-96.7</v>
+        <v>-113.34</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>78.025</v>
+        <v>138.63</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>-100.325</v>
+        <v>-112.18</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>83.7</v>
+        <v>75.175</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>-59.4</v>
+        <v>-105</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>86.2</v>
+        <v>72.425</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>-52.8</v>
+        <v>-95.775</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>82.5</v>
+        <v>75.2</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>-47.1</v>
+        <v>-108.825</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>148.24</v>
+        <v>80.55</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>-36.72</v>
+        <v>-118.65</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>114.25</v>
+        <v>70.425</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>-41</v>
+        <v>-105.05</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G105" s="0" t="s">
-        <v>11</v>
+      <c r="G105" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>115.75</v>
+        <v>148.4</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>-37.7</v>
+        <v>-84.9</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G106" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>120.3</v>
+        <v>142.7</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>-36.4</v>
+        <v>-75.2</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>119.3</v>
+        <v>81.9</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>-44.9</v>
+        <v>-59.4</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G108" s="0" t="s">
-        <v>11</v>
+      <c r="G108" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>125.7</v>
+        <v>86.2</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>-41.8</v>
+        <v>-52.8</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G109" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>130.6</v>
+        <v>82.5</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>-37.8</v>
-      </c>
-      <c r="F110" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" s="0" t="s">
-        <v>11</v>
+        <v>-47.1</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>129.1</v>
+        <v>148.24</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>-41.3</v>
-      </c>
-      <c r="F111" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G111" s="0" t="s">
-        <v>11</v>
+        <v>-36.72</v>
+      </c>
+      <c r="F111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>123.85</v>
+        <v>114.25</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>-47.4</v>
-      </c>
-      <c r="F112" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" s="0" t="s">
-        <v>11</v>
+        <v>-41</v>
+      </c>
+      <c r="F112" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>135.2</v>
+        <v>115.75</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>-44.5</v>
-      </c>
-      <c r="F113" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G113" s="0" t="s">
-        <v>11</v>
+        <v>-37.7</v>
+      </c>
+      <c r="F113" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>136.6</v>
+        <v>120.3</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>-41.2</v>
-      </c>
-      <c r="F114" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>11</v>
+        <v>-36.4</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>138.725</v>
+        <v>119.3</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>-39.3</v>
-      </c>
-      <c r="F115" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G115" s="0" t="s">
-        <v>11</v>
+        <v>-44.9</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>138.75</v>
+        <v>125.7</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>-46.5</v>
+        <v>-41.8</v>
       </c>
       <c r="F116" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G116" s="0" t="s">
-        <v>11</v>
+      <c r="G116" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>143.75</v>
+        <v>130.6</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>-46.5</v>
+        <v>-37.8</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>147</v>
+        <v>129.1</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>-41.075</v>
+        <v>-41.3</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>149.7</v>
+        <v>123.85</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>-53.07</v>
+        <v>-47.4</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>148.5</v>
+        <v>135.2</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>-44.5</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>150.05</v>
+        <v>136.6</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>-41.025</v>
+        <v>-41.2</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G121" s="0" t="s">
-        <v>11</v>
+      <c r="G121" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>111.006</v>
+        <v>138.725</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>-93.424</v>
+        <v>-39.3</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>118.08</v>
+        <v>138.75</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>-79.26</v>
+        <v>-46.5</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>114.3</v>
+        <v>143.75</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>-89.9</v>
+        <v>-46.5</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>120.1</v>
+        <v>147</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>-87.9</v>
+        <v>-41.075</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>118.3</v>
+        <v>149.7</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>-86.1</v>
+        <v>-53.07</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>120.4</v>
+        <v>148.5</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>-92.9</v>
+        <v>-44.5</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G127" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>120.73</v>
+        <v>150.05</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>-71.53</v>
+        <v>-41.025</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>126.8</v>
+        <v>107.4</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>-89.5</v>
+        <v>-92.6</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>128.7</v>
+        <v>113.7</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>-84.7</v>
+        <v>-79.6</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>130.2</v>
+        <v>114.4</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>-88</v>
+        <v>-89.9</v>
       </c>
       <c r="F131" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G131" s="0" t="s">
-        <v>11</v>
+      <c r="G131" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>128.4</v>
+        <v>116.4</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>-95</v>
+        <v>-94.6</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G132" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>131.46</v>
+        <v>118.3</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>-70.23</v>
+        <v>-86.1</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>136.6</v>
+        <v>120.7</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>-92.6</v>
+        <v>-89.8</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>126.22</v>
+        <v>120</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>-73.54</v>
+        <v>-81</v>
       </c>
       <c r="F135" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G135" s="0" t="s">
-        <v>11</v>
+      <c r="G135" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>137.93</v>
+        <v>126.8</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>-89.36</v>
+        <v>-89.5</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G136" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>139.708</v>
+        <v>128.7</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>-87.074</v>
+        <v>-84.7</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G137" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>143.1</v>
+        <v>130.2</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>-95.9</v>
+        <v>-88</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>145.9</v>
+        <v>128.4</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>-90.8</v>
+        <v>-95</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>140.175</v>
+        <v>124.8</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>-76.8</v>
+        <v>-77.7</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>147.9</v>
+        <v>136.6</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>-94</v>
+        <v>-92.6</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>149.3</v>
+        <v>63.425</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>-90.6</v>
+        <v>-95.675</v>
       </c>
       <c r="F142" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G142" s="0" t="s">
-        <v>11</v>
+      <c r="G142" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>145.86</v>
+        <v>137.93</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>-76.05</v>
+        <v>-89.36</v>
       </c>
       <c r="F143" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G143" s="0" t="s">
-        <v>11</v>
+      <c r="G143" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>147.582</v>
+        <v>139.708</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>-76.882</v>
+        <v>-87.074</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G144" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>149.48</v>
+        <v>143.1</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>-75.95</v>
+        <v>-95.9</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G145" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>112.276</v>
+        <v>145.9</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>-124.174</v>
-      </c>
-      <c r="F146" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G146" s="0" t="s">
-        <v>11</v>
+        <v>-90.8</v>
+      </c>
+      <c r="F146" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>112.53</v>
+        <v>59.55</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>-113.506</v>
-      </c>
-      <c r="F147" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G147" s="0" t="s">
-        <v>11</v>
+        <v>-107.625</v>
+      </c>
+      <c r="F147" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>113.8</v>
+        <v>147.9</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>-120.872</v>
-      </c>
-      <c r="F148" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G148" s="0" t="s">
-        <v>11</v>
+        <v>-94</v>
+      </c>
+      <c r="F148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>114.054</v>
+        <v>149.3</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>-110.458</v>
+        <v>-90.6</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G149" s="0" t="s">
-        <v>11</v>
+      <c r="G149" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>134.374</v>
+        <v>72.95</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>-127.222</v>
+        <v>-98.575</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G150" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>115.324</v>
+        <v>75.825</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>-117.57</v>
+        <v>-102.1</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>116.848</v>
+        <v>70.95</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>-125.952</v>
+        <v>-102.075</v>
       </c>
       <c r="F152" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G152" s="0" t="s">
-        <v>11</v>
+      <c r="G152" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>117.61</v>
+        <v>112.276</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>-107.664</v>
+        <v>-124.174</v>
       </c>
       <c r="F153" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G153" s="0" t="s">
-        <v>11</v>
+      <c r="G153" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>117.356</v>
+        <v>112.53</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>-115.03</v>
+        <v>-113.506</v>
       </c>
       <c r="F154" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G154" s="0" t="s">
-        <v>11</v>
+      <c r="G154" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>125.23</v>
+        <v>113.8</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>-122.396</v>
+        <v>-120.872</v>
       </c>
       <c r="F155" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G155" s="0" t="s">
-        <v>11</v>
+      <c r="G155" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>140.724</v>
+        <v>114.054</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>-120.872</v>
+        <v>-110.458</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G156" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>140.724</v>
+        <v>134.374</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>-122.65</v>
+        <v>-127.222</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G157" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>123.96</v>
+        <v>115.324</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>-119.094</v>
+        <v>-117.57</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G158" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>127.262</v>
+        <v>116.848</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>-120.618</v>
+        <v>-125.952</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G159" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>131.072</v>
+        <v>117.61</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>-124.174</v>
+        <v>-107.664</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G160" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>130.31</v>
+        <v>117.356</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>-117.316</v>
+        <v>-115.03</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G161" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>127.66</v>
+        <v>125.23</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>-109.18</v>
+        <v>-122.396</v>
       </c>
       <c r="F162" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G162" s="0" t="s">
-        <v>11</v>
+      <c r="G162" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>125.738</v>
+        <v>140.724</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>-107.156</v>
+        <v>-120.872</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G163" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>125.59</v>
+        <v>140.724</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>-112</v>
+        <v>-122.65</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G164" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>134.26</v>
+        <v>123.96</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>-113.25</v>
+        <v>-119.094</v>
       </c>
       <c r="F165" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G165" s="0" t="s">
-        <v>11</v>
+      <c r="G165" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>135.79</v>
+        <v>127.262</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>-109.76</v>
+        <v>-120.618</v>
       </c>
       <c r="F166" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G166" s="0" t="s">
-        <v>11</v>
+      <c r="G166" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>139.6</v>
+        <v>131.072</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>-108.02</v>
+        <v>-124.174</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G167" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>139.57</v>
+        <v>130.31</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>-116.36</v>
+        <v>-117.316</v>
       </c>
       <c r="F168" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G168" s="0" t="s">
-        <v>11</v>
+      <c r="G168" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>146</v>
+        <v>127.66</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>-109.5</v>
+        <v>-109.18</v>
       </c>
       <c r="F169" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G169" s="0" t="s">
-        <v>11</v>
+      <c r="G169" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>147.5</v>
+        <v>125.738</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>-113</v>
+        <v>-107.156</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>149</v>
+        <v>125.59</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>-109.5</v>
+        <v>-112</v>
       </c>
       <c r="F171" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G171" s="0" t="s">
-        <v>11</v>
+      <c r="G171" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>68.225</v>
+        <v>134.26</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>-111.25</v>
+        <v>-113.25</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>68.24</v>
+        <v>135.79</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>-113.26</v>
+        <v>-109.76</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G173" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>69.175</v>
+        <v>139.6</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>-98</v>
+        <v>-108.02</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>69.19</v>
+        <v>139.57</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>-99.83</v>
+        <v>-116.36</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G175" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>85.925</v>
+        <v>146</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>-119.75</v>
+        <v>-109.5</v>
       </c>
       <c r="F176" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G176" s="0" t="s">
-        <v>11</v>
+      <c r="G176" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>70.45</v>
+        <v>147.5</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>-105.175</v>
+        <v>-113</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G177" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>71.36</v>
+        <v>149</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>-117.69</v>
+        <v>-109.5</v>
       </c>
       <c r="F178" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G178" s="0" t="s">
-        <v>11</v>
+      <c r="G178" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>82.296</v>
+        <v>67.475</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>-99.314</v>
+        <v>-99.05</v>
       </c>
       <c r="F179" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G179" s="0" t="s">
-        <v>11</v>
+      <c r="G179" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>79.92</v>
+        <v>79.525</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>-124.91</v>
-      </c>
-      <c r="F180" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G180" s="0" t="s">
-        <v>11</v>
+        <v>-104.725</v>
+      </c>
+      <c r="F180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>80.51</v>
+        <v>73</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>-119.71</v>
+        <v>-93.05</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G181" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>83.566</v>
+        <v>84.575</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>-106.172</v>
+        <v>-108.825</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G182" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>79.175</v>
+        <v>77.85</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>-103.05</v>
+        <v>-116.1</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>80.45</v>
+        <v>66.375</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>-95.025</v>
+        <v>-107.65</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G184" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>73.95</v>
+        <v>79.55</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>-103.15</v>
+        <v>-108.825</v>
       </c>
       <c r="F185" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G185" s="0" t="s">
-        <v>11</v>
+      <c r="G185" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>76.454</v>
+        <v>72.15</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>-106.426</v>
+        <v>-109.425</v>
       </c>
       <c r="F186" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G186" s="0" t="s">
-        <v>11</v>
+      <c r="G186" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>75</v>
+        <v>80.5</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>-124.93</v>
+        <v>-98.55</v>
       </c>
       <c r="F187" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G187" s="0" t="s">
-        <v>11</v>
+      <c r="G187" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>74.29</v>
+        <v>70.075</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>-118.99</v>
+        <v>-109.5</v>
       </c>
       <c r="F188" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G188" s="0" t="s">
-        <v>11</v>
+      <c r="G188" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>73.66</v>
+        <v>71.25</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>-98.298</v>
+        <v>-113.05</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G189" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>68.58</v>
+        <v>68.5</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>-119.634</v>
+        <v>-94.6</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G190" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>65.9</v>
+        <v>81.225</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>-99.8</v>
+        <v>-115.7</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G191" s="0" t="s">
-        <v>11</v>
+        <v>180</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>152</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>71.2</v>
+        <v>86.575</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>-61.475</v>
+        <v>-119</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G192" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>79.4</v>
+        <v>74.675</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>-60.3</v>
+        <v>-119.975</v>
       </c>
       <c r="F193" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G193" s="0" t="s">
-        <v>11</v>
+      <c r="G193" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>71.8</v>
+        <v>77.95</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>-35.6</v>
+        <v>-121.375</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G194" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>83.2</v>
+        <v>60.375</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>-62.1</v>
+        <v>-87.55</v>
       </c>
       <c r="F195" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G195" s="0" t="s">
-        <v>11</v>
+      <c r="G195" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>72.575</v>
+        <v>155.5</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>-53.55</v>
+        <v>-80.4</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G196" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>79.4</v>
+        <v>77.7</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>-58.5</v>
+        <v>-60.3</v>
       </c>
       <c r="F197" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G197" s="0" t="s">
-        <v>11</v>
+      <c r="G197" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>86.6</v>
+        <v>71.8</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>-58.9</v>
+        <v>-35.6</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G198" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>85.4</v>
+        <v>63.675</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>-55.5</v>
+        <v>-60.625</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>78.3</v>
+        <v>155.4</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>-50.825</v>
+        <v>-75.4</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G200" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>79.775</v>
+        <v>151.8</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>-54.175</v>
+        <v>-79.1</v>
       </c>
       <c r="F201" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G201" s="0" t="s">
-        <v>11</v>
+      <c r="G201" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>88.8</v>
+        <v>141.5</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>-53.1</v>
+        <v>-79.1</v>
       </c>
       <c r="F202" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G202" s="0" t="s">
-        <v>11</v>
+      <c r="G202" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>83.55</v>
+        <v>132.4</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>-51.225</v>
+        <v>-71.7</v>
       </c>
       <c r="F203" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G203" s="0" t="s">
-        <v>11</v>
+      <c r="G203" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>85.525</v>
+        <v>134.6</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>-47.925</v>
+        <v>-71.7</v>
       </c>
       <c r="F204" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G204" s="0" t="s">
-        <v>11</v>
+      <c r="G204" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>78.45</v>
+        <v>81.8</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>-47</v>
+        <v>-62.1</v>
       </c>
       <c r="F205" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G205" s="0" t="s">
-        <v>11</v>
+      <c r="G205" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>82.175</v>
+        <v>74.3</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>-44.425</v>
+        <v>-54</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G206" s="0" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>80.625</v>
+        <v>84.9</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>-41.775</v>
+        <v>-58.9</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G207" s="0" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>156</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>83.775</v>
+        <v>85.4</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>-40.275</v>
+        <v>-55.5</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G208" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>152</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>80.475</v>
+        <v>78.3</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>-38.825</v>
+        <v>-50.825</v>
       </c>
       <c r="F209" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G209" s="0" t="s">
-        <v>11</v>
+      <c r="G209" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>106.5</v>
+        <v>79.775</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>-79.5</v>
+        <v>-54.175</v>
       </c>
       <c r="F210" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G210" s="0" t="s">
-        <v>11</v>
+      <c r="G210" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>88.9</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>-48.5</v>
+      </c>
+      <c r="F211" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>83.55</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>-51.225</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>85.525</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>-47.925</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>78.45</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>-47</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>82.175</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>-44.425</v>
+      </c>
+      <c r="F215" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>80.625</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>-41.775</v>
+      </c>
+      <c r="F216" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>83.775</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>-40.275</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>80.475</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>-38.825</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>-79.4</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>-80.3</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>-88.125</v>
+      </c>
+      <c r="F221" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
